--- a/data/microservice-recruit/pf-gateway_structure.xlsx
+++ b/data/microservice-recruit/pf-gateway_structure.xlsx
@@ -474,36 +474,42 @@
     <t>SUCCESS</t>
   </si>
   <si>
+    <t>UNKNOW_ERROR</t>
+  </si>
+  <si>
+    <t>NEED_LOGIN</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>msg</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>UNKNOW_ERROR</t>
-  </si>
-  <si>
-    <t>NEED_LOGIN</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>projectId</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>projectId</t>
-  </si>
-  <si>
     <t>messageWriters</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>messageReaders</t>
   </si>
   <si>
@@ -513,40 +519,34 @@
     <t>java.lang.ThreadLocal</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>viewResolvers</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
     <t>authArray</t>
   </si>
   <si>
     <t>java.lang.String[]</t>
   </si>
   <si>
+    <t>userIdCache</t>
+  </si>
+  <si>
+    <t>com.github.benmanes.caffeine.cache.LoadingCache</t>
+  </si>
+  <si>
     <t>userCenterClient</t>
   </si>
   <si>
     <t>projectKey</t>
-  </si>
-  <si>
-    <t>userIdCache</t>
-  </si>
-  <si>
-    <t>com.github.benmanes.caffeine.cache.LoadingCache</t>
   </si>
   <si>
     <t>success</t>
@@ -5095,10 +5095,10 @@
         <v>150</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -5109,10 +5109,10 @@
         <v>151</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -5123,10 +5123,10 @@
         <v>152</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -5137,10 +5137,10 @@
         <v>153</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -5154,7 +5154,7 @@
         <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -5196,7 +5196,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -5210,7 +5210,7 @@
         <v>35</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -5238,7 +5238,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
@@ -5246,13 +5246,13 @@
         <v>77</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>162</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -5294,7 +5294,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -5302,13 +5302,13 @@
         <v>90</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -5316,13 +5316,13 @@
         <v>90</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -5330,13 +5330,13 @@
         <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -5344,13 +5344,13 @@
         <v>90</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>164</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -5358,13 +5358,13 @@
         <v>109</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -5372,13 +5372,13 @@
         <v>109</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24">
@@ -5392,7 +5392,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -5400,13 +5400,13 @@
         <v>109</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -5414,13 +5414,13 @@
         <v>109</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -5442,13 +5442,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -5456,13 +5456,13 @@
         <v>20</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -5470,13 +5470,13 @@
         <v>20</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -6334,7 +6334,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>183</v>
